--- a/biology/Mycologie/Bolet_faux_royal/Bolet_faux_royal.xlsx
+++ b/biology/Mycologie/Bolet_faux_royal/Bolet_faux_royal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Butyriboletus fuscoroseus
-Butyriboletus fuscoroseus, le Bolet faux royal, anciennement Butyriboletus pseudoregius[1] ou Boletus pseudoregius, est une espèce comestible de champignon (Fungi) basidiomycète du genre Butyriboletus dans la famille des Boletaceae. Il est caractérisé par son chapeau brun rose, son pied présentant souvent une zone rose sur sa moitié inférieure et sa chair bleuissante au niveau du chapeau à la coupe.
+Butyriboletus fuscoroseus, le Bolet faux royal, anciennement Butyriboletus pseudoregius ou Boletus pseudoregius, est une espèce comestible de champignon (Fungi) basidiomycète du genre Butyriboletus dans la famille des Boletaceae. Il est caractérisé par son chapeau brun rose, son pied présentant souvent une zone rose sur sa moitié inférieure et sa chair bleuissante au niveau du chapeau à la coupe.
 </t>
         </is>
       </c>
@@ -512,58 +524,166 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Butyriboletus fuscoroseus (Smotl.) Vizzini &amp; Gelardi, 2014[2]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus fuscoroseus Smotl., 1912[2].
-Synonymes
-Butyriboletus fuscoroseus a pour synonymes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Butyriboletus fuscoroseus (Smotl.) Vizzini &amp; Gelardi, 2014. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus fuscoroseus Smotl., 1912.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_faux_royal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_faux_royal</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Butyriboletus fuscoroseus a pour synonymes :
 Boletus regius ss. Konrad (1925), Bulletin de la Société mycologique de France, 41(1), p. 67
 Boletus appendiculatus subsp.* regius ss. Konrad &amp; Maublanc (1925) , Icones Selectae Fungorum, 5, pl. 401
 Boletus appendiculatus subsp.* pseudoregius Heinr. Huber (1927) , Zeitschrift für pilzkunde, 6, p. 40 (Basionyme)
 Boletus pseudoregius (Heinr. Huber) Estadès (1988) , Bulletin trimestriel de la Fédération mycologique Dauphiné-Savoie, 27(108), p. 7
 Butyriboletus pseudoregius (Heinr. Huber) D. Arora &amp; J.L. Frank (2014) , Mycologia, 106(3), p. 466
-Butyriboletus fuscoroseus (Smotl.) Vizzini &amp; Gelardi, in Vizzini, Index Fungorum 162: 1 (2014) (nom actuel)[3]
-Phylogénie
-L'espèce était classée traditionnellement dans le genre Boletus (B.  pseudoregius), au sein de la famille des Boletaceae. Il fut décrit sous ce nom pour la première fois par le mycologue allemand Heinrich Huber en 1927, puis recombiné dans le nouveau genre[4] des « bolets beurrés » ou Butyriboletus en 2014[5]. Il fut ensuite recombiné en Butyriboletus fuscoroseus[1].
+Butyriboletus fuscoroseus (Smotl.) Vizzini &amp; Gelardi, in Vizzini, Index Fungorum 162: 1 (2014) (nom actuel)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bolet_faux_royal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_faux_royal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce était classée traditionnellement dans le genre Boletus (B.  pseudoregius), au sein de la famille des Boletaceae. Il fut décrit sous ce nom pour la première fois par le mycologue allemand Heinrich Huber en 1927, puis recombiné dans le nouveau genre des « bolets beurrés » ou Butyriboletus en 2014. Il fut ensuite recombiné en Butyriboletus fuscoroseus.
 N.B. Boletus speciosus est une espèce des conifères d’Amérique du Nord, un « regius bleuissant » selon Redeuilh, très diversement interprétée par les auteurs européens qui ont cru la retrouver sous feuillus, notamment des chênaies et hêtraies sur sol calcaire : Alessio (pl. 15), Marchand (pl. 218) et Breitenbach (t.3, pl. 21). Il existe des récoltes intermédiaires et plus robustes à débrouiller. En attendant, il est sage de s'abstenir d'utiliser ce nomen confusum en Europe.
-Étymologie
-L'épithète spécifique fuscoroseus (noir + rose) fait référence aux couleurs du chapeau.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Bolet_faux_royal</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bolet_faux_royal</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique fuscoroseus (noir + rose) fait référence aux couleurs du chapeau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bolet_faux_royal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_faux_royal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Butyriboletus fuscoroseus, le Bolet faux royal, sont les suivantes :
-Son chapeau mesure de 5 à 15 cm, il est sec et mat, parfois un peu velouté, vieux rose, rose terne ou brun rose[6].
-L'hyménophore présente des tubes jaune vif puis jaune olivâtre, nettement bleuissants. Les pores sont fins, bleuissants, concolores aux tubes[6].
-Son stipe mesure 3 à 12 cm x 1,5 à 3 cm, à base souvent assez arrondie, jaune, souvent avec un cerne ou la base rose, portant un réseau blanc très visible couvrant tout le pied[6].
-La chair est jaunâtre ou blanchâtre, à bleuissement modéré essentiellement limité au chapeau. Sa saveur est douce et son odeur est faible, un peu fruitée[6].
+Son chapeau mesure de 5 à 15 cm, il est sec et mat, parfois un peu velouté, vieux rose, rose terne ou brun rose.
+L'hyménophore présente des tubes jaune vif puis jaune olivâtre, nettement bleuissants. Les pores sont fins, bleuissants, concolores aux tubes.
+Son stipe mesure 3 à 12 cm x 1,5 à 3 cm, à base souvent assez arrondie, jaune, souvent avec un cerne ou la base rose, portant un réseau blanc très visible couvrant tout le pied.
+La chair est jaunâtre ou blanchâtre, à bleuissement modéré essentiellement limité au chapeau. Sa saveur est douce et son odeur est faible, un peu fruitée.
 </t>
         </is>
       </c>
